--- a/biology/Zoologie/Chioninia_vaillantii/Chioninia_vaillantii.xlsx
+++ b/biology/Zoologie/Chioninia_vaillantii/Chioninia_vaillantii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chioninia vaillantii est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chioninia vaillantii est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 août 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 août 2012) :
 Chioninia vaillantii vaillanti (Boulenger, 1887)
 Chioninia vaillantii xanthotis Miralles, Vasconcelos, Perera, Harris &amp; Carranza, 2010</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Léon Vaillant[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Léon Vaillant.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Boulenger, 1887 : Catalogue of the Lizards in the British Museum (Nat. Hist.) III. Lacertidae, Gerrhosauridae, Scincidae, Anelytropsidae, Dibamidae, Chamaeleontidae. London, p. 1-575 (texte intégral).
 (en) Miralles, Vasconcelos, Perera, Harris &amp; Carranza, 2010 : An integrative taxonomic revision of the Cape Verdean skinks (Squamata, Scincidae). Zoologica Scripta, vol. 40, no 1, p. 16-44.</t>
